--- a/reference-data/orig/P102313.xlsx
+++ b/reference-data/orig/P102313.xlsx
@@ -4,26 +4,576 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="300" windowWidth="20740" windowHeight="10810"/>
+    <workbookView xWindow="560" yWindow="300" windowWidth="20740" windowHeight="10810" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="morph" sheetId="1" r:id="rId1"/>
+    <sheet name="pre-anno" sheetId="2" r:id="rId2"/>
+    <sheet name="commented_Jinyang_201902" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="145">
+  <si>
+    <t>#new_text=P102313</t>
+  </si>
+  <si>
+    <t># ID</t>
+  </si>
+  <si>
+    <t>FORM</t>
+  </si>
+  <si>
+    <t>SEGM</t>
+  </si>
+  <si>
+    <t>XPOSTAG</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>DEPREL</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>o.1.1</t>
+  </si>
+  <si>
+    <t>1(gesz2)</t>
+  </si>
+  <si>
+    <t>1(gesz)[sixty]</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>o.1.2</t>
+  </si>
+  <si>
+    <t>la2</t>
+  </si>
+  <si>
+    <t>la[hang][-ø]</t>
+  </si>
+  <si>
+    <t>NF.V.ABS</t>
+  </si>
+  <si>
+    <t>o.1.3</t>
+  </si>
+  <si>
+    <t>1(disz)</t>
+  </si>
+  <si>
+    <t>1(disz)[one]</t>
+  </si>
+  <si>
+    <t>o.1.4</t>
+  </si>
+  <si>
+    <t>udu</t>
+  </si>
+  <si>
+    <t>udu[sheep]</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>o.2.1</t>
+  </si>
+  <si>
+    <t>8(disz)</t>
+  </si>
+  <si>
+    <t>8(disz)[one]</t>
+  </si>
+  <si>
+    <t>o.2.2</t>
+  </si>
+  <si>
+    <t>masz2</t>
+  </si>
+  <si>
+    <t>masz[goat]</t>
+  </si>
+  <si>
+    <t>o.3.1</t>
+  </si>
+  <si>
+    <t>szu</t>
+  </si>
+  <si>
+    <t>szu[hand]</t>
+  </si>
+  <si>
+    <t>o.3.2</t>
+  </si>
+  <si>
+    <t>la2-a</t>
+  </si>
+  <si>
+    <t>la[entrust]-a[-ø]</t>
+  </si>
+  <si>
+    <t>NF.V.PT.ABS</t>
+  </si>
+  <si>
+    <t>o.4.1</t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>ki[place]</t>
+  </si>
+  <si>
+    <t>o.4.2</t>
+  </si>
+  <si>
+    <t>ab-ba-sa6-ga-ta</t>
+  </si>
+  <si>
+    <t>Abbasaga[1][-ak]-ta</t>
+  </si>
+  <si>
+    <t>PN.GEN.ABL</t>
+  </si>
+  <si>
+    <t>r.1.1</t>
+  </si>
+  <si>
+    <t>be-li2-a-zu</t>
+  </si>
+  <si>
+    <t>Beli’azu[1][-e]</t>
+  </si>
+  <si>
+    <t>PN.ERG</t>
+  </si>
+  <si>
+    <t>r.2.1</t>
+  </si>
+  <si>
+    <t>i3-dab5</t>
+  </si>
+  <si>
+    <t>i[-n]-dab[seize][-ø]</t>
+  </si>
+  <si>
+    <t>FIN.3-SG-H-A.V.3-SG-P</t>
+  </si>
+  <si>
+    <t>r.3.1</t>
+  </si>
+  <si>
+    <t>iti</t>
+  </si>
+  <si>
+    <t>iti[month]</t>
+  </si>
+  <si>
+    <t>r.3.2</t>
+  </si>
+  <si>
+    <t>ses-da-gu7</t>
+  </si>
+  <si>
+    <t>Sesdagu[1][-'a]</t>
+  </si>
+  <si>
+    <t>MN.L1</t>
+  </si>
+  <si>
+    <t>r.4.1</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>mu[year]</t>
+  </si>
+  <si>
+    <t>r.4.2</t>
+  </si>
+  <si>
+    <t>{d}gu-za</t>
+  </si>
+  <si>
+    <t>guza[chair]</t>
+  </si>
+  <si>
+    <t>r.4.3</t>
+  </si>
+  <si>
+    <t>{d}en-lil2-la2</t>
+  </si>
+  <si>
+    <t>Enlil[1][-ak][-ø]</t>
+  </si>
+  <si>
+    <t>DN.GEN.ABS</t>
+  </si>
+  <si>
+    <t>r.4.4</t>
+  </si>
+  <si>
+    <t>ba-dim2</t>
+  </si>
+  <si>
+    <t>ba-dim[create][-ø]</t>
+  </si>
+  <si>
+    <t>MID.V.3-SG-S</t>
+  </si>
+  <si>
+    <t>l.1.1</t>
+  </si>
+  <si>
+    <t>l.1.2</t>
+  </si>
+  <si>
+    <t>7(disz)</t>
+  </si>
+  <si>
+    <t>7(disz)[one]</t>
+  </si>
+  <si>
+    <t>#ID</t>
+  </si>
+  <si>
+    <t>LEMMA</t>
+  </si>
+  <si>
+    <t>UPOSTAG</t>
+  </si>
+  <si>
+    <t>FEATS</t>
+  </si>
+  <si>
+    <t>DEPS</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>nummod</t>
+  </si>
+  <si>
+    <t>la[hang]</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>NOUN</t>
+  </si>
+  <si>
+    <t>Number=Sing</t>
+  </si>
+  <si>
+    <t>appos</t>
+  </si>
+  <si>
+    <t>la[entrust]</t>
+  </si>
+  <si>
+    <t>amod</t>
+  </si>
+  <si>
+    <t>ABL</t>
+  </si>
+  <si>
+    <t>Abbasaga[1]</t>
+  </si>
+  <si>
+    <t>PROPN</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Animacy=Hum|Case=Gen,Abl|Number=Sing</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>Beli’azu[1]</t>
+  </si>
+  <si>
+    <t>Animacy=Hum|Case=Erg|Number=Sing</t>
+  </si>
+  <si>
+    <t>ERG</t>
+  </si>
+  <si>
+    <t>n]</t>
+  </si>
+  <si>
+    <t>Number=Sing|Person=3|VerbForm=Fin</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Sesdagu[1]</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Enlil[1]</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>Animacy=Hum|Case=Gen,Abs|Number=Sing</t>
+  </si>
+  <si>
+    <t>dim[create]</t>
+  </si>
+  <si>
+    <t>Number=Sing|Person=3|Voice=Mid</t>
+  </si>
+  <si>
+    <t># note: this is a newer pre-annotation than the one commented on</t>
+  </si>
+  <si>
+    <t># original comments under https://docs.google.com/document/d/1E6LaEAQxZILkORRPtc8ByWYZwO3869AU4pHRlHlQS3g/edit</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>ABS (nsubj:passive) (see note 2)</t>
+  </si>
+  <si>
+    <t>1. NF.V.ABS/PT/F= acl</t>
+  </si>
+  <si>
+    <r>
+      <t>2. NU</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> la2 NU</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>(NU</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> is hung out from NU</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>), so la2=NF.V.ABS=acl; NU</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Liberation Serif"/>
+        <family val="1"/>
+      </rPr>
+      <t>= nsubj:passive</t>
+    </r>
+  </si>
+  <si>
+    <t>3. goods or persons in the same position, use the relationship ‘conj’ to link the latter one to the first one.</t>
+  </si>
+  <si>
+    <t>4. in compound verbs, the nominal part= compound</t>
+  </si>
+  <si>
+    <t>5. as for the date formula (day, month and year), we link it with the verb, use L1, when we update the tag, we change L1 into obl.</t>
+  </si>
+  <si>
+    <t>6. when the month and year name appear together, we put them in a conjunctional relationship, so we put mu as a ‘conj’ to iti.</t>
+  </si>
+  <si>
+    <t>7. we put year name as an acl of mu.</t>
+  </si>
+  <si>
+    <t>8. as for the number at the end of the text, this is the total number of the animals recorded above, we take it as a note, and we tag it as ‘parataxis’.</t>
+  </si>
+  <si>
+    <t>9. as for the numeral compounds, like 3(u) 5(dish), we tag the second part as ‘flat’ to the first one, if there is the third part, we also tag it as ‘flat’ to the first one.</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Acl (see note 1)</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>acl</t>
+  </si>
+  <si>
+    <t>COMMENT CC</t>
+  </si>
+  <si>
+    <t>correct, but we stay with nummod here</t>
+  </si>
+  <si>
+    <t>conj (see note 3)</t>
+  </si>
+  <si>
+    <t>compound (see note 4)</t>
+  </si>
+  <si>
+    <t>L1 (see note 5)</t>
+  </si>
+  <si>
+    <t>conj (see note 6)</t>
+  </si>
+  <si>
+    <t>acl (see note 7)</t>
+  </si>
+  <si>
+    <t>parataxis (see note 8)</t>
+  </si>
+  <si>
+    <t>flat (see note 9)</t>
+  </si>
+  <si>
+    <t>no explicit conjunction, hence appos (design decision)</t>
+  </si>
+  <si>
+    <t>to replicate this, we need a list of compounds (that we don't have); suggestion: treat as ABS argument of verb</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>transaction-specific relation "date" (=&gt; LOC?), in UD mapped to obl</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>conj only for explicit relations, current design decision: LOC for relations within dates</t>
+  </si>
+  <si>
+    <t>numerous relations have been suggested, what speaks against flat is that this can contain verbs, currently nummod (yes, of a nummod)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Serif"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="6.6"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Serif"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +596,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,36 +910,2211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="11" max="11" width="21.7265625" customWidth="1"/>
+    <col min="12" max="12" width="42.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="3">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="3">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="3">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>